--- a/output/StructureDefinition-no-basis-postponementreason.xlsx
+++ b/output/StructureDefinition-no-basis-postponementreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T01:49:52+02:00</t>
+    <t>2023-04-11T09:32:34+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-postponementreason.xlsx
+++ b/output/StructureDefinition-no-basis-postponementreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:32:34+02:00</t>
+    <t>2023-04-18T13:51:55+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-postponementreason.xlsx
+++ b/output/StructureDefinition-no-basis-postponementreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T13:51:55+02:00</t>
+    <t>2023-04-18T14:05:08+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-postponementreason.xlsx
+++ b/output/StructureDefinition-no-basis-postponementreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-18T14:05:08+02:00</t>
+    <t>2023-04-19T23:41:28+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-postponementreason.xlsx
+++ b/output/StructureDefinition-no-basis-postponementreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T23:41:28+02:00</t>
+    <t>2023-04-19T23:48:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-no-basis-postponementreason.xlsx
+++ b/output/StructureDefinition-no-basis-postponementreason.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-19T23:48:27+02:00</t>
+    <t>2023-04-27T14:52:10+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
